--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_300.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3980769230769231</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['E', 'E/7', 'C#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
+          <t>[('0:00:10.501791', '0:00:15.122562')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:08.280000', '0:00:15.800000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1429381735677822</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['A', 'D', 'A', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98)]</t>
+          <t>[['G:maj', 'C:maj', 'G/3', 'G:maj', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:41.784000', '0:00:49.282000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:39.093000', '0:00:47.902000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2375</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3452380952380952</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.36, 11.66)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:14.400000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:03:44.260000', '0:03:55.060000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1785714285714285</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'D#:maj', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Db', 'Db', 'Db:7', 'Gb']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(82.98, 99.36)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(22.947687, 31.49263)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1995967741935484</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['D:maj/F#', 'D:maj/A', 'A:7']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_290</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09249011857707509</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7']]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(227.62, 235.06), (244.36, 251.28)]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.86, 14.13), (7.59, 10.86)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1245901639344262</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(63.12, 69.42)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(32.48, 45.82)]</t>
+          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:44.200000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2154471544715447</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(62.53, 68.09)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(28.450816, 40.095623)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1868131868131868</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.78, 24.04)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(24.838594, 30.028253)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09260869565217392</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.6, 11.32)]</t>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3625</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(43.14, 60.24)]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3467741935483871</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'E', 'A', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'A', 'D', 'A', 'E']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(65.131995, 83.20873)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(95.451995, 105.343696)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1325187969924812</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(53.176848, 58.331678)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(60.898, 67.056)]</t>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1365853658536585</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E/5']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(37.28, 39.869)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(59.907505, 63.843287)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.5, 3.9)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.3, 2.82)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.04, 46.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
